--- a/data/trans_orig/P1432-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{929BD7C8-0253-43CD-8C70-67600DF1D811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F0C46AB-8A36-4307-9153-740ECFE22897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DEB39B11-C6D1-4B21-8326-D50439DC84F1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0893C5E0-8DE7-4D0B-BAAF-612FD4DFCF51}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="287">
   <si>
     <t>Población con diagnóstico de incontinencia urinaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -101,748 +101,763 @@
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,08%</t>
   </si>
   <si>
     <t>0,92%</t>
@@ -1296,7 +1311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E612A0D-26AC-44FE-B8B9-8418E9545BD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954F5873-5FA5-45CC-BC98-54A5937F0F5F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2265,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2280,7 +2295,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2310,13 @@
         <v>4451</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -2310,10 +2325,10 @@
         <v>9341</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>81</v>
@@ -2367,7 +2382,7 @@
         <v>89</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>774</v>
@@ -2376,13 +2391,13 @@
         <v>776904</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,7 +2453,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2456,7 +2471,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2501,13 +2516,13 @@
         <v>26574</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -2516,10 +2531,10 @@
         <v>33161</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>100</v>
@@ -2573,7 +2588,7 @@
         <v>108</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M26" s="7">
         <v>1126</v>
@@ -2582,13 +2597,13 @@
         <v>1119572</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,7 +2677,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2677,7 +2692,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2692,7 +2707,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,13 +2722,13 @@
         <v>35923</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -2722,13 +2737,13 @@
         <v>50689</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>85</v>
@@ -2737,13 +2752,13 @@
         <v>86612</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,13 +2773,13 @@
         <v>3240621</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7">
         <v>3249</v>
@@ -2773,25 +2788,25 @@
         <v>3328509</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>6426</v>
       </c>
       <c r="N30" s="7">
-        <v>6569128</v>
+        <v>6569129</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>55</v>
@@ -2836,7 +2851,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>24</v>
@@ -2850,7 +2865,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2872,7 +2887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF41AC7-887C-4EA9-BC5E-7C5CCC8F8F46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAF3C91-C918-451D-B52A-3CB57C175CDF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2889,7 +2904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3002,7 +3017,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3017,7 +3032,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3032,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3068,7 +3083,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3083,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,7 +3116,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -3116,7 +3131,7 @@
         <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>24</v>
@@ -3131,7 +3146,7 @@
         <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>24</v>
@@ -3223,7 +3238,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3274,7 +3289,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3322,7 +3337,7 @@
         <v>22</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>24</v>
@@ -3337,7 +3352,7 @@
         <v>22</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>24</v>
@@ -3459,13 +3474,13 @@
         <v>2059</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3480,7 +3495,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3489,13 +3504,13 @@
         <v>3944</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,10 +3558,10 @@
         <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,22 +3650,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,7 +3686,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3686,7 +3701,7 @@
         <v>36</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3695,13 +3710,13 @@
         <v>5180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,7 +3734,7 @@
         <v>52</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>22</v>
@@ -3731,10 +3746,10 @@
         <v>611111</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>42</v>
@@ -3746,13 +3761,13 @@
         <v>1223700</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,7 +3856,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3856,7 +3871,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,13 +3886,13 @@
         <v>2078</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -3886,13 +3901,13 @@
         <v>10337</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -3901,13 +3916,13 @@
         <v>12415</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,10 +3937,10 @@
         <v>427351</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>22</v>
@@ -3940,10 +3955,10 @@
         <v>88</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="M22" s="7">
         <v>787</v>
@@ -3952,13 +3967,13 @@
         <v>864814</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,7 +4029,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4047,7 +4062,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4077,13 +4092,13 @@
         <v>16493</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -4092,13 +4107,13 @@
         <v>42516</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -4107,13 +4122,13 @@
         <v>59009</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4143,13 @@
         <v>543144</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>655</v>
@@ -4143,13 +4158,13 @@
         <v>699350</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>1145</v>
@@ -4158,13 +4173,13 @@
         <v>1242495</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,7 +4253,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4253,7 +4268,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4268,7 +4283,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4298,13 @@
         <v>22657</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -4298,13 +4313,13 @@
         <v>57892</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -4313,13 +4328,13 @@
         <v>80549</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4349,13 @@
         <v>3404122</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>3242</v>
@@ -4349,28 +4364,28 @@
         <v>3496098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>6431</v>
       </c>
       <c r="N30" s="7">
-        <v>6900219</v>
+        <v>6900220</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>85</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,7 +4427,7 @@
         <v>6504</v>
       </c>
       <c r="N31" s="7">
-        <v>6980768</v>
+        <v>6980769</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>24</v>
@@ -4426,7 +4441,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4448,7 +4463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D91730-A932-4A02-BDAF-4646537F6AE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977F79B2-8CC0-49DE-88EC-757C3544E3DA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4465,7 +4480,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4593,7 +4608,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4608,7 +4623,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,7 +4659,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4659,7 +4674,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,7 +4692,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -4692,7 +4707,7 @@
         <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>24</v>
@@ -4707,7 +4722,7 @@
         <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>24</v>
@@ -4784,7 +4799,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4814,7 +4829,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,7 +4850,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4865,7 +4880,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,7 +4898,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -4913,7 +4928,7 @@
         <v>22</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>24</v>
@@ -4990,7 +5005,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5041,7 +5056,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5050,13 +5065,13 @@
         <v>2898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -5065,13 +5080,13 @@
         <v>2898</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5116,13 @@
         <v>658488</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>1300</v>
@@ -5116,13 +5131,13 @@
         <v>1327585</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,7 +5262,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5256,13 +5271,13 @@
         <v>4085</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -5277,7 +5292,7 @@
         <v>32</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,10 +5307,10 @@
         <v>645101</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>22</v>
@@ -5307,10 +5322,10 @@
         <v>644992</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>42</v>
@@ -5319,16 +5334,16 @@
         <v>1179</v>
       </c>
       <c r="N18" s="7">
-        <v>1290093</v>
+        <v>1290094</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,7 +5385,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>24</v>
@@ -5402,7 +5417,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5417,7 +5432,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5432,7 +5447,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5462,13 @@
         <v>1138</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -5462,13 +5477,13 @@
         <v>9092</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -5477,13 +5492,13 @@
         <v>10230</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,10 +5513,10 @@
         <v>476780</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>22</v>
@@ -5513,13 +5528,13 @@
         <v>487757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>848</v>
@@ -5528,13 +5543,13 @@
         <v>964537</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,7 +5605,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5653,13 +5668,13 @@
         <v>15432</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -5668,13 +5683,13 @@
         <v>35195</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -5683,13 +5698,13 @@
         <v>50627</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5719,13 @@
         <v>575896</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -5719,13 +5734,13 @@
         <v>742736</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M26" s="7">
         <v>1236</v>
@@ -5734,13 +5749,13 @@
         <v>1318632</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,7 +5829,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5829,7 +5844,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5844,7 +5859,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5874,13 @@
         <v>17516</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -5874,13 +5889,13 @@
         <v>51270</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M29" s="7">
         <v>63</v>
@@ -5892,10 +5907,10 @@
         <v>18</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5925,13 @@
         <v>3376834</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="H30" s="7">
         <v>3294</v>
@@ -5925,13 +5940,13 @@
         <v>3493272</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="M30" s="7">
         <v>6506</v>
@@ -5943,10 +5958,10 @@
         <v>26</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,7 +6017,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +6039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3074174-655A-4E16-B0A8-0268CFCA2C6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B5C8F3-84B6-42E9-96C1-4C0704FB12A6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6041,7 +6056,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6151,7 +6166,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>24</v>
@@ -6166,7 +6181,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>24</v>
@@ -6181,7 +6196,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>24</v>
@@ -6205,7 +6220,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>118</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6220,7 +6235,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6256,7 +6271,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>118</v>
+        <v>272</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6271,7 +6286,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6357,7 +6372,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -6372,7 +6387,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -6387,7 +6402,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -6411,7 +6426,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6426,7 +6441,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6441,7 +6456,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,7 +6477,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6477,7 +6492,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6492,7 +6507,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,7 +6593,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>24</v>
@@ -6632,7 +6647,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6683,7 +6698,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6784,7 +6799,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>24</v>
@@ -6799,7 +6814,7 @@
         <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>24</v>
@@ -6838,7 +6853,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6853,7 +6868,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,7 +6904,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6904,7 +6919,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,7 +7020,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -7059,7 +7074,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,7 +7125,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7166,7 +7181,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7196,7 +7211,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>24</v>
@@ -7211,7 +7226,7 @@
         <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>24</v>
@@ -7250,7 +7265,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7265,7 +7280,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,7 +7316,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7316,7 +7331,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,7 +7402,7 @@
         <v>22</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>24</v>
@@ -7402,7 +7417,7 @@
         <v>22</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>24</v>
@@ -7417,7 +7432,7 @@
         <v>22</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>24</v>
@@ -7441,7 +7456,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7456,7 +7471,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7471,7 +7486,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7492,7 +7507,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -7507,7 +7522,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -7522,7 +7537,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,7 +7593,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1432-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F0C46AB-8A36-4307-9153-740ECFE22897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{741E1CF4-AE12-4620-9935-30D38C799EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0893C5E0-8DE7-4D0B-BAAF-612FD4DFCF51}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6628E127-14B6-4C20-ABEF-E661FC381D2A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="288">
   <si>
     <t>Población con diagnóstico de incontinencia urinaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,769 +95,772 @@
     <t>0,2%</t>
   </si>
   <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>98,75%</t>
   </si>
   <si>
     <t>Población con diagnóstico de incontinencia urinaria en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>98,89%</t>
-  </si>
-  <si>
     <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
   </si>
   <si>
     <t>0,92%</t>
@@ -1311,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954F5873-5FA5-45CC-BC98-54A5937F0F5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE07B58D-C763-481F-AFE3-2737DC02C166}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2137,10 +2140,10 @@
         <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,10 +2158,10 @@
         <v>517329</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>22</v>
@@ -2170,10 +2173,10 @@
         <v>511575</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>40</v>
@@ -2185,13 +2188,13 @@
         <v>1028904</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,7 +2250,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2265,7 +2268,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2280,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2295,7 +2298,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,13 +2313,13 @@
         <v>4451</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -2325,13 +2328,13 @@
         <v>9341</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -2340,13 +2343,13 @@
         <v>13792</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,13 +2364,13 @@
         <v>382259</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H22" s="7">
         <v>387</v>
@@ -2376,13 +2379,13 @@
         <v>394645</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="M22" s="7">
         <v>774</v>
@@ -2391,13 +2394,13 @@
         <v>776904</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,7 +2456,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2471,7 +2474,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2516,13 +2519,13 @@
         <v>26574</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -2531,13 +2534,13 @@
         <v>33161</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -2546,13 +2549,13 @@
         <v>59736</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2570,13 @@
         <v>475892</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H26" s="7">
         <v>630</v>
@@ -2582,13 +2585,13 @@
         <v>643681</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M26" s="7">
         <v>1126</v>
@@ -2597,13 +2600,13 @@
         <v>1119572</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,7 +2680,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2692,7 +2695,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2707,7 +2710,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2725,13 @@
         <v>35923</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -2737,13 +2740,13 @@
         <v>50689</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>119</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>85</v>
@@ -2752,13 +2755,13 @@
         <v>86612</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,16 +2773,16 @@
         <v>3177</v>
       </c>
       <c r="D30" s="7">
-        <v>3240621</v>
+        <v>3240620</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H30" s="7">
         <v>3249</v>
@@ -2788,13 +2791,13 @@
         <v>3328509</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>6426</v>
@@ -2803,13 +2806,13 @@
         <v>6569129</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,7 +2824,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>24</v>
@@ -2865,7 +2868,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2887,7 +2890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAF3C91-C918-451D-B52A-3CB57C175CDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBD7EBD-48F1-4284-8FC6-7E1852677FBA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2904,7 +2907,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3017,7 +3020,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3032,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3047,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,7 +3071,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3083,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3098,7 +3101,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,7 +3119,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -3131,7 +3134,7 @@
         <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>24</v>
@@ -3146,7 +3149,7 @@
         <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>24</v>
@@ -3238,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3289,7 +3292,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3337,7 +3340,7 @@
         <v>22</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>24</v>
@@ -3352,7 +3355,7 @@
         <v>22</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>24</v>
@@ -3474,13 +3477,13 @@
         <v>2059</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3495,7 +3498,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3504,13 +3507,13 @@
         <v>3944</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,10 +3528,10 @@
         <v>679804</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>22</v>
@@ -3540,10 +3543,10 @@
         <v>707689</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>22</v>
@@ -3555,13 +3558,13 @@
         <v>1387493</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,7 +3653,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3665,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,7 +3689,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3695,13 +3698,13 @@
         <v>3153</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3710,13 +3713,13 @@
         <v>5180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3737,7 @@
         <v>52</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>22</v>
@@ -3746,10 +3749,10 @@
         <v>611111</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>42</v>
@@ -3761,13 +3764,13 @@
         <v>1223700</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3826,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3841,7 +3844,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3856,7 +3859,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3871,7 +3874,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3889,13 @@
         <v>2078</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -3901,13 +3904,13 @@
         <v>10337</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -3916,13 +3919,13 @@
         <v>12415</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,10 +3940,10 @@
         <v>427351</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>22</v>
@@ -3952,13 +3955,13 @@
         <v>437463</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="M22" s="7">
         <v>787</v>
@@ -3967,13 +3970,13 @@
         <v>864814</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,7 +4032,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4062,7 +4065,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4092,13 +4095,13 @@
         <v>16493</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -4107,13 +4110,13 @@
         <v>42516</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -4122,13 +4125,13 @@
         <v>59009</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4146,13 @@
         <v>543144</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H26" s="7">
         <v>655</v>
@@ -4158,13 +4161,13 @@
         <v>699350</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M26" s="7">
         <v>1145</v>
@@ -4173,13 +4176,13 @@
         <v>1242495</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,7 +4256,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4268,7 +4271,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4283,7 +4286,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4301,13 @@
         <v>22657</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -4313,13 +4316,13 @@
         <v>57892</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -4328,13 +4331,13 @@
         <v>80549</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4352,13 @@
         <v>3404122</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3242</v>
@@ -4364,28 +4367,28 @@
         <v>3496098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>6431</v>
       </c>
       <c r="N30" s="7">
-        <v>6900220</v>
+        <v>6900219</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,7 +4430,7 @@
         <v>6504</v>
       </c>
       <c r="N31" s="7">
-        <v>6980769</v>
+        <v>6980768</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>24</v>
@@ -4441,7 +4444,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4463,7 +4466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977F79B2-8CC0-49DE-88EC-757C3544E3DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8BEDFC-FD5C-40FC-BF67-65BAAE21679D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4593,7 +4596,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4608,7 +4611,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4623,7 +4626,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,7 +4647,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4659,7 +4662,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4674,7 +4677,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,7 +4802,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4829,7 +4832,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4880,7 +4883,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,7 +4901,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -4928,7 +4931,7 @@
         <v>22</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>24</v>
@@ -5005,7 +5008,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5056,7 +5059,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5065,13 +5068,13 @@
         <v>2898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -5080,13 +5083,13 @@
         <v>2898</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,7 +5107,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -5116,13 +5119,13 @@
         <v>658488</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>1300</v>
@@ -5131,13 +5134,13 @@
         <v>1327585</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,7 +5265,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5271,13 +5274,13 @@
         <v>4085</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -5289,10 +5292,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,10 +5310,10 @@
         <v>645101</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>22</v>
@@ -5322,10 +5325,10 @@
         <v>644992</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>42</v>
@@ -5334,16 +5337,16 @@
         <v>1179</v>
       </c>
       <c r="N18" s="7">
-        <v>1290094</v>
+        <v>1290093</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,7 +5388,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>24</v>
@@ -5399,7 +5402,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5417,7 +5420,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5432,7 +5435,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5447,7 +5450,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5465,13 @@
         <v>1138</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -5477,13 +5480,13 @@
         <v>9092</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -5492,13 +5495,13 @@
         <v>10230</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,7 +5519,7 @@
         <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>22</v>
@@ -5528,13 +5531,13 @@
         <v>487757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>848</v>
@@ -5543,13 +5546,13 @@
         <v>964537</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,7 +5608,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5668,13 +5671,13 @@
         <v>15432</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -5683,13 +5686,13 @@
         <v>35195</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>244</v>
+        <v>107</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -5698,13 +5701,13 @@
         <v>50627</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5722,13 @@
         <v>575896</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -5734,13 +5737,13 @@
         <v>742736</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M26" s="7">
         <v>1236</v>
@@ -5749,13 +5752,13 @@
         <v>1318632</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,7 +5832,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5844,7 +5847,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5859,7 +5862,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5877,13 @@
         <v>17516</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -5889,13 +5892,13 @@
         <v>51270</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M29" s="7">
         <v>63</v>
@@ -5904,13 +5907,13 @@
         <v>68786</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5928,13 @@
         <v>3376834</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="H30" s="7">
         <v>3294</v>
@@ -5940,13 +5943,13 @@
         <v>3493272</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M30" s="7">
         <v>6506</v>
@@ -5955,13 +5958,13 @@
         <v>6870106</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>268</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,7 +6020,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -6039,7 +6042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B5C8F3-84B6-42E9-96C1-4C0704FB12A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A27405-9286-45AE-9B03-E249916BA452}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6056,7 +6059,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6166,7 +6169,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>24</v>
@@ -6181,7 +6184,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>24</v>
@@ -6196,7 +6199,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>24</v>
@@ -6220,7 +6223,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6235,7 +6238,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6250,7 +6253,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,7 +6274,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6286,7 +6289,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6301,7 +6304,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,7 +6375,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -6387,7 +6390,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -6402,7 +6405,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -6426,7 +6429,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6441,7 +6444,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6456,7 +6459,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,7 +6480,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6492,7 +6495,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6507,7 +6510,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,7 +6581,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -6593,7 +6596,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>24</v>
@@ -6647,7 +6650,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6698,7 +6701,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6799,7 +6802,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>24</v>
@@ -6808,13 +6811,13 @@
         <v>1806</v>
       </c>
       <c r="N16" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>24</v>
@@ -6853,7 +6856,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6868,7 +6871,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,7 +6907,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6919,7 +6922,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,7 +6964,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>24</v>
@@ -6975,7 +6978,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7020,7 +7023,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -7074,7 +7077,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,7 +7128,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,7 +7184,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7190,7 +7193,7 @@
         <v>1028</v>
       </c>
       <c r="D24" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>22</v>
@@ -7211,7 +7214,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>24</v>
@@ -7226,7 +7229,7 @@
         <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>24</v>
@@ -7265,7 +7268,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7280,7 +7283,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,7 +7319,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7331,7 +7334,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,7 +7346,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>24</v>
@@ -7402,7 +7405,7 @@
         <v>22</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>24</v>
@@ -7417,7 +7420,7 @@
         <v>22</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>24</v>
@@ -7426,13 +7429,13 @@
         <v>8743</v>
       </c>
       <c r="N28" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>24</v>
@@ -7456,7 +7459,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7471,7 +7474,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7486,7 +7489,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,7 +7510,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -7522,7 +7525,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -7537,7 +7540,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,7 +7582,7 @@
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>24</v>
@@ -7593,7 +7596,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1432-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{605CE621-5C50-4E26-ABD6-41286724A113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F37F92D-F0B1-4E54-AD48-A3B473D3E088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1C2BFE09-AFFA-4BCC-8904-9EEEBE0BD10B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{68D7873F-8234-4B47-9AA7-B57578D74922}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="293">
   <si>
     <t>Población con diagnóstico de incontinencia urinaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -118,7 +118,7 @@
     <t>99,52%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,14%</t>
@@ -157,7 +157,7 @@
     <t>99,46%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -202,7 +202,7 @@
     <t>99,92%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -241,7 +241,7 @@
     <t>98,8%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,15%</t>
@@ -298,55 +298,118 @@
     <t>99,02%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>1,1%</t>
@@ -487,9 +550,6 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
     <t>1,16%</t>
   </si>
   <si>
@@ -502,12 +562,6 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
     <t>95,99%</t>
   </si>
   <si>
@@ -517,64 +571,91 @@
     <t>98,58%</t>
   </si>
   <si>
-    <t>97,63%</t>
-  </si>
-  <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -724,58 +805,82 @@
     <t>97,98%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>0,52%</t>
@@ -1223,8 +1328,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F22C30-7156-468C-A452-AA3999462624}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263F23C8-7606-4EB0-A956-489CC55D46AE}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2116,10 +2221,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>26574</v>
+        <v>10932</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>87</v>
@@ -2131,34 +2236,34 @@
         <v>89</v>
       </c>
       <c r="H19" s="7">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>33161</v>
+        <v>11491</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="N19" s="7">
-        <v>59736</v>
+        <v>22423</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,49 +2272,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>496</v>
+        <v>292</v>
       </c>
       <c r="D20" s="7">
-        <v>475892</v>
+        <v>281651</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
-        <v>630</v>
+        <v>359</v>
       </c>
       <c r="I20" s="7">
-        <v>643681</v>
+        <v>331443</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
-        <v>1126</v>
+        <v>651</v>
       </c>
       <c r="N20" s="7">
-        <v>1119572</v>
+        <v>613094</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,10 +2323,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -2233,10 +2338,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -2248,10 +2353,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -2265,55 +2370,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>35923</v>
+        <v>15643</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="I22" s="7">
-        <v>50689</v>
+        <v>21670</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="N22" s="7">
-        <v>86612</v>
+        <v>37313</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,49 +2427,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3177</v>
+        <v>204</v>
       </c>
       <c r="D23" s="7">
-        <v>3240621</v>
+        <v>194240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
-        <v>3249</v>
+        <v>271</v>
       </c>
       <c r="I23" s="7">
-        <v>3328509</v>
+        <v>312238</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
-        <v>6426</v>
+        <v>475</v>
       </c>
       <c r="N23" s="7">
-        <v>6569128</v>
+        <v>506478</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,63 +2478,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>37</v>
+      </c>
+      <c r="D25" s="7">
+        <v>35923</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="7">
+        <v>48</v>
+      </c>
+      <c r="I25" s="7">
+        <v>50689</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M25" s="7">
+        <v>85</v>
+      </c>
+      <c r="N25" s="7">
+        <v>86612</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3177</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3240620</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3249</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3328508</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6426</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6569129</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>119</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2442,8 +2703,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE5E9B2-E751-4EDD-BA4D-B45921B48672}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9828EDCE-BC9E-467E-98A9-6F72D6E46E0D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2459,7 +2720,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2587,7 +2848,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2602,7 +2863,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,7 +2896,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2650,7 +2911,7 @@
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2742,7 +3003,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2757,7 +3018,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,7 +3051,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2805,7 +3066,7 @@
         <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -2876,13 +3137,13 @@
         <v>2059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2891,13 +3152,13 @@
         <v>1885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2906,13 +3167,13 @@
         <v>3944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,10 +3188,10 @@
         <v>679804</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2942,10 +3203,10 @@
         <v>707689</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2957,13 +3218,13 @@
         <v>1387493</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3307,13 @@
         <v>3153</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3061,13 +3322,13 @@
         <v>5180</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,10 +3358,10 @@
         <v>611111</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>37</v>
@@ -3112,10 +3373,10 @@
         <v>1223700</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>37</v>
@@ -3192,7 +3453,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3204,10 +3465,10 @@
         <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -3216,13 +3477,13 @@
         <v>12415</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,7 +3501,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3255,10 +3516,10 @@
         <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
         <v>787</v>
@@ -3267,13 +3528,13 @@
         <v>864814</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,49 +3596,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>16493</v>
+        <v>11494</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="H19" s="7">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>42516</v>
+        <v>9855</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M19" s="7">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="N19" s="7">
-        <v>59009</v>
+        <v>21349</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,49 +3647,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>490</v>
+        <v>273</v>
       </c>
       <c r="D20" s="7">
-        <v>543144</v>
+        <v>298292</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="H20" s="7">
-        <v>655</v>
+        <v>335</v>
       </c>
       <c r="I20" s="7">
-        <v>699350</v>
+        <v>344141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>175</v>
       </c>
       <c r="M20" s="7">
-        <v>1145</v>
+        <v>608</v>
       </c>
       <c r="N20" s="7">
-        <v>1242495</v>
+        <v>642433</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,10 +3698,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -3452,10 +3713,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741866</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -3467,10 +3728,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301504</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -3484,55 +3745,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>22657</v>
+        <v>4999</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="H22" s="7">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I22" s="7">
-        <v>57892</v>
+        <v>32661</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="N22" s="7">
-        <v>80549</v>
+        <v>37660</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,49 +3802,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3189</v>
+        <v>217</v>
       </c>
       <c r="D23" s="7">
-        <v>3404122</v>
+        <v>244852</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="H23" s="7">
-        <v>3242</v>
+        <v>320</v>
       </c>
       <c r="I23" s="7">
-        <v>3496098</v>
+        <v>355209</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="M23" s="7">
-        <v>6431</v>
+        <v>537</v>
       </c>
       <c r="N23" s="7">
-        <v>6900219</v>
+        <v>600061</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,63 +3853,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387870</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637721</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7">
+        <v>22657</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="7">
+        <v>53</v>
+      </c>
+      <c r="I25" s="7">
+        <v>57892</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" s="7">
+        <v>73</v>
+      </c>
+      <c r="N25" s="7">
+        <v>80549</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3189</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3404122</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3242</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3496098</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6431</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6900220</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3553990</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
-        <v>6980768</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>119</v>
+      <c r="N27" s="7">
+        <v>6980769</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3661,8 +4078,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7C3746-95D1-4074-A85B-2940710862E0}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60294C97-822F-4A57-9721-B7D2D55BCBD1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3678,7 +4095,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3791,7 +4208,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3806,7 +4223,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3821,7 +4238,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,7 +4256,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3854,7 +4271,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3869,7 +4286,7 @@
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3946,7 +4363,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3976,7 +4393,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,7 +4411,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4024,7 +4441,7 @@
         <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -4101,7 +4518,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4110,13 +4527,13 @@
         <v>2898</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4125,13 +4542,13 @@
         <v>2898</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,7 +4566,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -4161,13 +4578,13 @@
         <v>658488</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
         <v>1300</v>
@@ -4176,13 +4593,13 @@
         <v>1327585</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4667,13 @@
         <v>947</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4265,13 +4682,13 @@
         <v>4085</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4280,13 +4697,13 @@
         <v>5032</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,10 +4718,10 @@
         <v>645101</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4316,10 +4733,10 @@
         <v>644992</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>37</v>
@@ -4331,13 +4748,13 @@
         <v>1290093</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4822,13 @@
         <v>1138</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4420,13 +4837,13 @@
         <v>9092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -4435,13 +4852,13 @@
         <v>10230</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,10 +4873,10 @@
         <v>476780</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4471,13 +4888,13 @@
         <v>487757</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>848</v>
@@ -4486,13 +4903,13 @@
         <v>964537</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,49 +4971,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>15432</v>
+        <v>2890</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>35195</v>
+        <v>8959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="N19" s="7">
-        <v>50627</v>
+        <v>11848</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,49 +5022,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>610</v>
+        <v>322</v>
       </c>
       <c r="D20" s="7">
-        <v>575896</v>
+        <v>331440</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="H20" s="7">
-        <v>626</v>
+        <v>345</v>
       </c>
       <c r="I20" s="7">
-        <v>742736</v>
+        <v>368803</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
-        <v>1236</v>
+        <v>667</v>
       </c>
       <c r="N20" s="7">
-        <v>1318632</v>
+        <v>700244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,10 +5073,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -4671,10 +5088,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -4686,10 +5103,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -4703,55 +5120,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>17516</v>
+        <v>12542</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I22" s="7">
-        <v>51270</v>
+        <v>26236</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="N22" s="7">
-        <v>68786</v>
+        <v>38778</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,49 +5177,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3212</v>
+        <v>288</v>
       </c>
       <c r="D23" s="7">
-        <v>3376834</v>
+        <v>244456</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="H23" s="7">
-        <v>3294</v>
+        <v>281</v>
       </c>
       <c r="I23" s="7">
-        <v>3493272</v>
+        <v>373933</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="M23" s="7">
-        <v>6506</v>
+        <v>569</v>
       </c>
       <c r="N23" s="7">
-        <v>6870106</v>
+        <v>618389</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>279</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,63 +5228,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>19</v>
+      </c>
+      <c r="D25" s="7">
+        <v>17516</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H25" s="7">
+        <v>44</v>
+      </c>
+      <c r="I25" s="7">
+        <v>51270</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M25" s="7">
+        <v>63</v>
+      </c>
+      <c r="N25" s="7">
+        <v>68786</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3212</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3376834</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3294</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3493272</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6506</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6870106</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>119</v>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
